--- a/xlsx/政治献金_intext.xlsx
+++ b/xlsx/政治献金_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%94%BF%E6%B2%BB</t>
@@ -53,61 +53,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%95%86%E5%8B%BE%E7%B5%90</t>
   </si>
   <si>
-    <t>官商勾結</t>
+    <t>官商勾结</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%BC%B8%E9%80%81</t>
   </si>
   <si>
-    <t>利益輸送</t>
+    <t>利益输送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%84%E8%B3%82</t>
   </si>
   <si>
-    <t>賄賂</t>
+    <t>贿赂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98</t>
   </si>
   <si>
-    <t>財團</t>
+    <t>财团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第一修正案</t>
+    <t>美国宪法第一修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%99%E9%81%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>候選人</t>
+    <t>候选人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%84%E9%81%B8</t>
   </si>
   <si>
-    <t>賄選</t>
+    <t>贿选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>媒體</t>
+    <t>媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%96%AE</t>
   </si>
   <si>
-    <t>傳單</t>
+    <t>传单</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%97</t>
@@ -119,37 +119,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E5%8B%A2%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>造勢大會</t>
+    <t>造势大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9F%E5%A4%96</t>
   </si>
   <si>
-    <t>號外</t>
+    <t>号外</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E9%87%91</t>
   </si>
   <si>
-    <t>資金</t>
+    <t>资金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%8A%E5%8A%A9</t>
   </si>
   <si>
-    <t>贊助</t>
+    <t>赞助</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>利益團體</t>
+    <t>利益团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%AA%AA</t>
   </si>
   <si>
-    <t>遊說</t>
+    <t>游说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E7%8E%89%E8%94%BB</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E6%96%B0%E7%8D%BB%E9%87%91%E6%A1%88</t>
   </si>
   <si>
-    <t>頂新獻金案</t>
+    <t>顶新献金案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E6%96%B0%E4%B8%89%E9%87%8D%E6%96%B0%E7%87%95%E6%A1%88%E5%9C%9F%E5%9C%B0%E8%AE%8A%E6%9B%B4%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>頂新三重新燕案土地變更事件</t>
+    <t>顶新三重新燕案土地变更事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%BD%AD%E8%B3%BC%E5%9C%B0%E6%A1%88</t>
   </si>
   <si>
-    <t>龍潭購地案</t>
+    <t>龙潭购地案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
